--- a/Exam attempt/Exam Attempt2.xlsx
+++ b/Exam attempt/Exam Attempt2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C82ED6-8022-4668-B4C1-30156F75C5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$D$1:$D$131</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="530">
   <si>
     <t>Slno</t>
   </si>
@@ -1570,12 +1571,63 @@
   </si>
   <si>
     <t>HiPAA</t>
+  </si>
+  <si>
+    <t>UDP hijacking</t>
+  </si>
+  <si>
+    <t>Use your colleague's public key to encrypt the message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS tunnelling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hping2 -1 target.domain.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.bash_history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whois footprinting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote-access policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug bounty program </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmap -sn -PS &lt; target IP address &gt; </t>
+  </si>
+  <si>
+    <t>10.1.155.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fileless malware </t>
+  </si>
+  <si>
+    <t>Webroot</t>
+  </si>
+  <si>
+    <t>Union-based and error-based</t>
+  </si>
+  <si>
+    <t>Bluesmacking</t>
+  </si>
+  <si>
+    <t>Private keys</t>
+  </si>
+  <si>
+    <t>Topological scanning technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evil twin attack </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1905,10 +1957,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3823,18 +3875,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131"/>
+  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3867,9 +3919,12 @@
       <c r="B2" t="s">
         <v>126</v>
       </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,9 +3934,12 @@
       <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,9 +3949,12 @@
       <c r="B4" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3903,9 +3964,12 @@
       <c r="B5" t="s">
         <v>129</v>
       </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,9 +3979,12 @@
       <c r="B6" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,9 +3994,12 @@
       <c r="B7" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,6 +4009,9 @@
       <c r="B8" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="C8" t="s">
+        <v>513</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3951,9 +4024,12 @@
       <c r="B9" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,9 +4039,12 @@
       <c r="B10" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,6 +4054,9 @@
       <c r="B11" t="s">
         <v>135</v>
       </c>
+      <c r="C11" t="s">
+        <v>516</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3987,6 +4069,9 @@
       <c r="B12" t="s">
         <v>136</v>
       </c>
+      <c r="C12" t="s">
+        <v>514</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3999,9 +4084,12 @@
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,9 +4099,12 @@
       <c r="B14" t="s">
         <v>137</v>
       </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,6 +4114,9 @@
       <c r="B15" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="C15" t="s">
+        <v>515</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4035,9 +4129,12 @@
       <c r="B16" t="s">
         <v>139</v>
       </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,9 +4144,12 @@
       <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="D17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D17" t="e">
+        <f>IF(B17=#REF!,TRUE,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,8 +4159,11 @@
       <c r="B18" t="s">
         <v>141</v>
       </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
       <c r="D18" t="b">
-        <f t="shared" si="0"/>
+        <f>IF(B18=C17,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4071,8 +4174,11 @@
       <c r="B19" t="s">
         <v>142</v>
       </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
       <c r="D19" t="b">
-        <f t="shared" si="0"/>
+        <f>IF(B19=C18,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4083,8 +4189,11 @@
       <c r="B20" t="s">
         <v>143</v>
       </c>
+      <c r="C20" t="s">
+        <v>517</v>
+      </c>
       <c r="D20" t="b">
-        <f t="shared" si="0"/>
+        <f>IF(B20=C19,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4095,6 +4204,9 @@
       <c r="B21" t="s">
         <v>144</v>
       </c>
+      <c r="C21" t="s">
+        <v>518</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4107,6 +4219,9 @@
       <c r="B22" t="s">
         <v>145</v>
       </c>
+      <c r="C22" t="s">
+        <v>519</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4119,9 +4234,12 @@
       <c r="B23" t="s">
         <v>146</v>
       </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,9 +4249,12 @@
       <c r="B24" t="s">
         <v>147</v>
       </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,9 +4264,12 @@
       <c r="B25" t="s">
         <v>148</v>
       </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,9 +4279,12 @@
       <c r="B26" t="s">
         <v>149</v>
       </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,9 +4294,12 @@
       <c r="B27" t="s">
         <v>150</v>
       </c>
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,9 +4309,12 @@
       <c r="B28" t="s">
         <v>151</v>
       </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4191,6 +4324,9 @@
       <c r="B29" t="s">
         <v>152</v>
       </c>
+      <c r="C29" t="s">
+        <v>520</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4203,9 +4339,12 @@
       <c r="B30" t="s">
         <v>153</v>
       </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,9 +4354,12 @@
       <c r="B31" t="s">
         <v>154</v>
       </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,9 +4369,12 @@
       <c r="B32">
         <v>128</v>
       </c>
+      <c r="C32">
+        <v>128</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,9 +4384,12 @@
       <c r="B33" t="s">
         <v>155</v>
       </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,9 +4399,12 @@
       <c r="B34" t="s">
         <v>156</v>
       </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,9 +4414,12 @@
       <c r="B35" t="s">
         <v>157</v>
       </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,9 +4429,12 @@
       <c r="B36" t="s">
         <v>158</v>
       </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,9 +4444,12 @@
       <c r="B37" t="s">
         <v>159</v>
       </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,9 +4459,12 @@
       <c r="B38" t="s">
         <v>160</v>
       </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,9 +4474,12 @@
       <c r="B39" t="s">
         <v>161</v>
       </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,9 +4489,12 @@
       <c r="B40" t="s">
         <v>162</v>
       </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,6 +4504,9 @@
       <c r="B41" t="s">
         <v>163</v>
       </c>
+      <c r="C41" t="s">
+        <v>521</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4347,6 +4519,9 @@
       <c r="B42" t="s">
         <v>164</v>
       </c>
+      <c r="C42" t="s">
+        <v>522</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4359,6 +4534,9 @@
       <c r="B43" t="s">
         <v>165</v>
       </c>
+      <c r="C43" t="s">
+        <v>523</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4371,9 +4549,12 @@
       <c r="B44" t="s">
         <v>166</v>
       </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,9 +4564,12 @@
       <c r="B45" t="s">
         <v>167</v>
       </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,9 +4579,12 @@
       <c r="B46" t="s">
         <v>168</v>
       </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,6 +4594,9 @@
       <c r="B47" t="s">
         <v>169</v>
       </c>
+      <c r="C47" t="s">
+        <v>524</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4419,9 +4609,12 @@
       <c r="B48" t="s">
         <v>170</v>
       </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,6 +4624,9 @@
       <c r="B49" t="s">
         <v>171</v>
       </c>
+      <c r="C49" t="s">
+        <v>525</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4443,6 +4639,9 @@
       <c r="B50" t="s">
         <v>172</v>
       </c>
+      <c r="C50" t="s">
+        <v>526</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4455,6 +4654,9 @@
       <c r="B51" t="s">
         <v>173</v>
       </c>
+      <c r="C51" t="s">
+        <v>527</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4467,9 +4669,12 @@
       <c r="B52" t="s">
         <v>174</v>
       </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,9 +4684,12 @@
       <c r="B53" t="s">
         <v>175</v>
       </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,9 +4699,12 @@
       <c r="B54" t="s">
         <v>176</v>
       </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,6 +4714,9 @@
       <c r="B55" t="s">
         <v>177</v>
       </c>
+      <c r="C55" t="s">
+        <v>379</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4515,9 +4729,12 @@
       <c r="B56" t="s">
         <v>178</v>
       </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,6 +4744,9 @@
       <c r="B57" t="s">
         <v>179</v>
       </c>
+      <c r="C57" t="s">
+        <v>528</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4539,6 +4759,9 @@
       <c r="B58" t="s">
         <v>180</v>
       </c>
+      <c r="C58" t="s">
+        <v>529</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4551,9 +4774,12 @@
       <c r="B59" t="s">
         <v>181</v>
       </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,9 +4789,12 @@
       <c r="B60" t="s">
         <v>182</v>
       </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,9 +4804,12 @@
       <c r="B61">
         <v>53</v>
       </c>
+      <c r="C61">
+        <v>53</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,9 +4819,12 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,7 +5601,7 @@
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
@@ -5375,7 +5610,7 @@
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
@@ -5393,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
@@ -6953,7 +7188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8218,7 +8453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
